--- a/apps/10_same_items/bestprc-color.xlsx
+++ b/apps/10_same_items/bestprc-color.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZT717572\Documents\develop\ProcGA\apps\10_same_items\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{910EEE66-70C8-4076-87AF-24CF25187B03}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E48FA564-BF36-45B2-93D1-B3030E8D8D6F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135" xr2:uid="{37970D0A-668E-46A8-B246-0F47D4D770A6}"/>
   </bookViews>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>remark</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10 items schedule for vertical calibration</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -154,6 +150,10 @@
   </si>
   <si>
     <t>50 pcs each.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Remark</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -875,7 +875,7 @@
   <dimension ref="A1:AJ27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -886,7 +886,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="24" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:36" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
@@ -1752,27 +1752,27 @@
     </row>
     <row r="16" spans="1:36" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
